--- a/published-data/fonds-solidarite/fds-2022-06-23/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-23/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -5908,13 +5908,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>62519</v>
+        <v>62520</v>
       </c>
       <c r="D108" t="n">
         <v>10955</v>
       </c>
       <c r="E108" t="n">
-        <v>340664380</v>
+        <v>340718916</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -20596,13 +20596,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>71279</v>
+        <v>71283</v>
       </c>
       <c r="D396" t="n">
         <v>12436</v>
       </c>
       <c r="E396" t="n">
-        <v>110317269</v>
+        <v>110329263</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>18880</v>
+        <v>18884</v>
       </c>
       <c r="D399" t="n">
         <v>3383</v>
       </c>
       <c r="E399" t="n">
-        <v>75348959</v>
+        <v>75370883</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -20851,13 +20851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>16950</v>
+        <v>16953</v>
       </c>
       <c r="D401" t="n">
         <v>2945</v>
       </c>
       <c r="E401" t="n">
-        <v>50842697</v>
+        <v>50862471</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -21106,13 +21106,13 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>6300</v>
+        <v>6301</v>
       </c>
       <c r="D406" t="n">
         <v>911</v>
       </c>
       <c r="E406" t="n">
-        <v>19499128</v>
+        <v>19502085</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
@@ -21208,13 +21208,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>9346</v>
+        <v>9348</v>
       </c>
       <c r="D408" t="n">
         <v>1304</v>
       </c>
       <c r="E408" t="n">
-        <v>23840698</v>
+        <v>23899308</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -24523,13 +24523,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D473" t="n">
         <v>66</v>
       </c>
       <c r="E473" t="n">
-        <v>18624611</v>
+        <v>18988775</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416845</v>
+        <v>416847</v>
       </c>
       <c r="D477" t="n">
         <v>70501</v>
       </c>
       <c r="E477" t="n">
-        <v>725561174</v>
+        <v>725568806</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -24778,13 +24778,13 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D478" t="n">
         <v>23</v>
       </c>
       <c r="E478" t="n">
-        <v>737225</v>
+        <v>770088</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292235</v>
+        <v>292241</v>
       </c>
       <c r="D484" t="n">
         <v>42567</v>
       </c>
       <c r="E484" t="n">
-        <v>1773134394</v>
+        <v>1773158231</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230793</v>
+        <v>230800</v>
       </c>
       <c r="D487" t="n">
         <v>33851</v>
       </c>
       <c r="E487" t="n">
-        <v>1823854114</v>
+        <v>1824293037</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>12261</v>
+        <v>12262</v>
       </c>
       <c r="D491" t="n">
         <v>1839</v>
       </c>
       <c r="E491" t="n">
-        <v>76190156</v>
+        <v>76195954</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184280</v>
+        <v>184281</v>
       </c>
       <c r="D505" t="n">
         <v>27739</v>
       </c>
       <c r="E505" t="n">
-        <v>332783436</v>
+        <v>332788386</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>62229</v>
+        <v>62230</v>
       </c>
       <c r="D509" t="n">
         <v>11293</v>
       </c>
       <c r="E509" t="n">
-        <v>299519446</v>
+        <v>299538829</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -33550,13 +33550,13 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>43792</v>
+        <v>43796</v>
       </c>
       <c r="D650" t="n">
         <v>9334</v>
       </c>
       <c r="E650" t="n">
-        <v>79590543</v>
+        <v>79596543</v>
       </c>
       <c r="F650" t="inlineStr">
         <is>
